--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Bmpr1b</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H2">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I2">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J2">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +558,22 @@
         <v>4.402218</v>
       </c>
       <c r="O2">
-        <v>0.8178057326420413</v>
+        <v>0.864087546066766</v>
       </c>
       <c r="P2">
-        <v>0.8654277364307374</v>
+        <v>0.9050919696083439</v>
       </c>
       <c r="Q2">
-        <v>9.401604208730001</v>
+        <v>9.282746768406664</v>
       </c>
       <c r="R2">
-        <v>84.61443787857</v>
+        <v>83.54472091565999</v>
       </c>
       <c r="S2">
-        <v>0.2290646059907645</v>
+        <v>0.3861052132566773</v>
       </c>
       <c r="T2">
-        <v>0.2826958030413216</v>
+        <v>0.4156307644041911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H3">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I3">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J3">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.296209</v>
+        <v>0.2308085</v>
       </c>
       <c r="N3">
-        <v>0.592418</v>
+        <v>0.461617</v>
       </c>
       <c r="O3">
-        <v>0.1650813873325899</v>
+        <v>0.135912453933234</v>
       </c>
       <c r="P3">
-        <v>0.1164628759322743</v>
+        <v>0.09490803039165596</v>
       </c>
       <c r="Q3">
-        <v>1.897797733595</v>
+        <v>1.460084569298333</v>
       </c>
       <c r="R3">
-        <v>11.38678640157</v>
+        <v>8.76050741579</v>
       </c>
       <c r="S3">
-        <v>0.04623873548010459</v>
+        <v>0.06073054431694692</v>
       </c>
       <c r="T3">
-        <v>0.0380431142315382</v>
+        <v>0.04358308165837527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.406955</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H4">
-        <v>19.220865</v>
+        <v>20.059353</v>
       </c>
       <c r="I4">
-        <v>0.2800966009992835</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J4">
-        <v>0.3266544289500554</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.030706</v>
+        <v>1.467406</v>
       </c>
       <c r="N4">
-        <v>0.09211799999999999</v>
+        <v>4.402218</v>
       </c>
       <c r="O4">
-        <v>0.01711288002536893</v>
+        <v>0.864087546066766</v>
       </c>
       <c r="P4">
-        <v>0.01810938763698814</v>
+        <v>0.9050919696083439</v>
       </c>
       <c r="Q4">
-        <v>0.19673196023</v>
+        <v>9.811738316106</v>
       </c>
       <c r="R4">
-        <v>1.77058764207</v>
+        <v>88.305644844954</v>
       </c>
       <c r="S4">
-        <v>0.004793259528414368</v>
+        <v>0.4081080104277229</v>
       </c>
       <c r="T4">
-        <v>0.005915511677195553</v>
+        <v>0.4393161203466724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H5">
         <v>20.059353</v>
       </c>
       <c r="I5">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J5">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.467406</v>
+        <v>0.2308085</v>
       </c>
       <c r="N5">
-        <v>4.402218</v>
+        <v>0.461617</v>
       </c>
       <c r="O5">
-        <v>0.8178057326420413</v>
+        <v>0.135912453933234</v>
       </c>
       <c r="P5">
-        <v>0.8654277364307374</v>
+        <v>0.09490803039165596</v>
       </c>
       <c r="Q5">
-        <v>9.811738316106</v>
+        <v>1.5432897256335</v>
       </c>
       <c r="R5">
-        <v>88.305644844954</v>
+        <v>9.259738353801001</v>
       </c>
       <c r="S5">
-        <v>0.2390572844341116</v>
+        <v>0.06419136743669243</v>
       </c>
       <c r="T5">
-        <v>0.29502808041284</v>
+        <v>0.04606673034503741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.1448225</v>
+      </c>
+      <c r="H6">
+        <v>2.289645</v>
+      </c>
+      <c r="I6">
+        <v>0.08086486456196039</v>
+      </c>
+      <c r="J6">
+        <v>0.05540330324572383</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>6.686450999999999</v>
-      </c>
-      <c r="H6">
-        <v>20.059353</v>
-      </c>
-      <c r="I6">
-        <v>0.2923154911886005</v>
-      </c>
-      <c r="J6">
-        <v>0.3409043505233806</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.296209</v>
+        <v>1.467406</v>
       </c>
       <c r="N6">
-        <v>0.592418</v>
+        <v>4.402218</v>
       </c>
       <c r="O6">
-        <v>0.1650813873325899</v>
+        <v>0.864087546066766</v>
       </c>
       <c r="P6">
-        <v>0.1164628759322743</v>
+        <v>0.9050919696083439</v>
       </c>
       <c r="Q6">
-        <v>1.980586964259</v>
+        <v>1.679919405435</v>
       </c>
       <c r="R6">
-        <v>11.883521785554</v>
+        <v>10.07951643261</v>
       </c>
       <c r="S6">
-        <v>0.04825584682422161</v>
+        <v>0.06987432238236574</v>
       </c>
       <c r="T6">
-        <v>0.03970270107977702</v>
+        <v>0.05014508485748054</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,241 +835,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.686450999999999</v>
+        <v>1.1448225</v>
       </c>
       <c r="H7">
-        <v>20.059353</v>
+        <v>2.289645</v>
       </c>
       <c r="I7">
-        <v>0.2923154911886005</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J7">
-        <v>0.3409043505233806</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.030706</v>
+        <v>0.2308085</v>
       </c>
       <c r="N7">
-        <v>0.09211799999999999</v>
+        <v>0.461617</v>
       </c>
       <c r="O7">
-        <v>0.01711288002536893</v>
+        <v>0.135912453933234</v>
       </c>
       <c r="P7">
-        <v>0.01810938763698814</v>
+        <v>0.09490803039165596</v>
       </c>
       <c r="Q7">
-        <v>0.2053141644059999</v>
+        <v>0.26423476399125</v>
       </c>
       <c r="R7">
-        <v>1.847827479654</v>
+        <v>1.056939055965</v>
       </c>
       <c r="S7">
-        <v>0.005002359930267307</v>
+        <v>0.01099054217959465</v>
       </c>
       <c r="T7">
-        <v>0.006173569030763581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>9.7806845</v>
-      </c>
-      <c r="H8">
-        <v>19.561369</v>
-      </c>
-      <c r="I8">
-        <v>0.4275879078121161</v>
-      </c>
-      <c r="J8">
-        <v>0.332441220526564</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.467406</v>
-      </c>
-      <c r="N8">
-        <v>4.402218</v>
-      </c>
-      <c r="O8">
-        <v>0.8178057326420413</v>
-      </c>
-      <c r="P8">
-        <v>0.8654277364307374</v>
-      </c>
-      <c r="Q8">
-        <v>14.352235119407</v>
-      </c>
-      <c r="R8">
-        <v>86.113410716442</v>
-      </c>
-      <c r="S8">
-        <v>0.3496838422171652</v>
-      </c>
-      <c r="T8">
-        <v>0.2877038529765759</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>9.7806845</v>
-      </c>
-      <c r="H9">
-        <v>19.561369</v>
-      </c>
-      <c r="I9">
-        <v>0.4275879078121161</v>
-      </c>
-      <c r="J9">
-        <v>0.332441220526564</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.296209</v>
-      </c>
-      <c r="N9">
-        <v>0.592418</v>
-      </c>
-      <c r="O9">
-        <v>0.1650813873325899</v>
-      </c>
-      <c r="P9">
-        <v>0.1164628759322743</v>
-      </c>
-      <c r="Q9">
-        <v>2.8971267750605</v>
-      </c>
-      <c r="R9">
-        <v>11.588507100242</v>
-      </c>
-      <c r="S9">
-        <v>0.07058680502826367</v>
-      </c>
-      <c r="T9">
-        <v>0.03871706062095906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>9.7806845</v>
-      </c>
-      <c r="H10">
-        <v>19.561369</v>
-      </c>
-      <c r="I10">
-        <v>0.4275879078121161</v>
-      </c>
-      <c r="J10">
-        <v>0.332441220526564</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.030706</v>
-      </c>
-      <c r="N10">
-        <v>0.09211799999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.01711288002536893</v>
-      </c>
-      <c r="P10">
-        <v>0.01810938763698814</v>
-      </c>
-      <c r="Q10">
-        <v>0.300325698257</v>
-      </c>
-      <c r="R10">
-        <v>1.801954189542</v>
-      </c>
-      <c r="S10">
-        <v>0.007317260566687251</v>
-      </c>
-      <c r="T10">
-        <v>0.006020306929029006</v>
+        <v>0.005258218388243288</v>
       </c>
     </row>
   </sheetData>
